--- a/outputs/posterior_load_110N.xlsx
+++ b/outputs/posterior_load_110N.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12525"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,7 +417,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>-5.0000000000000001E-3</v>
+        <v>-6.2078699999999999E-3</v>
       </c>
       <c r="B2">
         <v>1.66574369</v>
@@ -429,16 +429,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>45.142635460000001</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>89.349128629999996</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>0.59693887999999995</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2.5962758899999998</v>
       </c>
     </row>
   </sheetData>
